--- a/biology/Botanique/Rubus_rosifolius/Rubus_rosifolius.xlsx
+++ b/biology/Botanique/Rubus_rosifolius/Rubus_rosifolius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Framboisier d'Asie
 Rubus rosifolius, le framboisier d'Asie, est une espèce de plantes à fleurs de la famille des Rosaceae.
@@ -514,15 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aspect général
-L'espèce se présente comme une ronce très dense[1].
-Feuilles
-Les feuilles sont dentées et composées de 3 à 7 folioles épineuses, ovales et lancéolées, avec un apex aigu[2].
-Fleurs
-Les fleurs sont regroupées en inflorescences terminales de 1 à 3 fleurs ; elles comprennent 5 pétales blancs, qu'elles perdent assez rapidement, et de nombreuses étamines plus ou moins jaunes[2]. Elles sont mellifères. La floraison a lieu pendant la saison fraîche[1].
-Fruits
-Le fruit ressemble aux framboises d'Europe, mais ses drupéoles sont plus petites[1]. Chacune d'elles contient une graine[2]. La fructification a lieu au deuxième semestre[1].
-La propagation des graines est effectuée par zoochorie, notamment grâce aux oiseaux frugivores[1].
+          <t>Aspect général</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce se présente comme une ronce très dense.
 </t>
         </is>
       </c>
@@ -548,15 +558,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Distribution</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">On situe généralement son origine en Asie du Sud-Est. On le trouve couramment en Australie, en Nouvelle-Calédonie (où on l'appelle « framboise marron », ou encore « framboise pays »), dans certaines îles du Pacifique, et en Asie de la Chine tropicale au sous-continent indien. Il a été acclimaté dans de nombreuses zones tropicales et tempérées chaudes, où il est parfois cultivé à une échelle commerciale. On le trouve en abondance dans le sud du Brésil, en Californie. Il a été introduit également dans les Antilles, où il préfère l'altitude et les versants montagneux humides.
-Caractère envahissant
-Cette espèce est considérée comme une plante envahissante à Hawaï, Porto Rico et en Polynésie française.
-C'est le cas également en Nouvelle-Calédonie, où elle aurait été introduite en 1883 à Koé[2],[3].
+          <t>Feuilles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les feuilles sont dentées et composées de 3 à 7 folioles épineuses, ovales et lancéolées, avec un apex aigu.
 </t>
         </is>
       </c>
@@ -582,12 +595,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Dénomination</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Son nom latin signifie « framboisier à feuilles de roses », une appellation donnée à l'espèce en Nouvelle-Calédonie[1].
+          <t>Fleurs</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fleurs sont regroupées en inflorescences terminales de 1 à 3 fleurs ; elles comprennent 5 pétales blancs, qu'elles perdent assez rapidement, et de nombreuses étamines plus ou moins jaunes. Elles sont mellifères. La floraison a lieu pendant la saison fraîche.
 </t>
         </is>
       </c>
@@ -613,10 +632,154 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fruits</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le fruit ressemble aux framboises d'Europe, mais ses drupéoles sont plus petites. Chacune d'elles contient une graine. La fructification a lieu au deuxième semestre.
+La propagation des graines est effectuée par zoochorie, notamment grâce aux oiseaux frugivores.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Rubus_rosifolius</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rubus_rosifolius</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On situe généralement son origine en Asie du Sud-Est. On le trouve couramment en Australie, en Nouvelle-Calédonie (où on l'appelle « framboise marron », ou encore « framboise pays »), dans certaines îles du Pacifique, et en Asie de la Chine tropicale au sous-continent indien. Il a été acclimaté dans de nombreuses zones tropicales et tempérées chaudes, où il est parfois cultivé à une échelle commerciale. On le trouve en abondance dans le sud du Brésil, en Californie. Il a été introduit également dans les Antilles, où il préfère l'altitude et les versants montagneux humides.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Rubus_rosifolius</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rubus_rosifolius</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Caractère envahissant</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est considérée comme une plante envahissante à Hawaï, Porto Rico et en Polynésie française.
+C'est le cas également en Nouvelle-Calédonie, où elle aurait été introduite en 1883 à Koé,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Rubus_rosifolius</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rubus_rosifolius</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom latin signifie « framboisier à feuilles de roses », une appellation donnée à l'espèce en Nouvelle-Calédonie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Rubus_rosifolius</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rubus_rosifolius</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Rubus commersonnii Poir.
 Rubus coronarius
